--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Имя баристы</t>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -478,6 +488,8 @@
           <t>Санжар</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -498,12 +510,12 @@
           <t>test</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-05-28</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45440</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -519,6 +531,262 @@
         <is>
           <t>1</t>
         </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14:00:11.821246</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sanzhar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Karibay\</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>507500572</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14:05:19.681022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>507500572</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14:28:39.047375</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>507500572</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14:29:56.165677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>507500572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:30:12.731676</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>507500572</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14:30:43.598356</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>507500572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14:32:49.106540</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sanzhar</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Karibay</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>507500572</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14:34:13.195669</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>507500572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>19:35:54.122119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sanzhar</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>karibay</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>507500572</v>
       </c>
     </row>
   </sheetData>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karib\Desktop\work\TelegramBots\TelegramBots\DEVELOPING\lunacoffee_opening\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14891C78-CE0A-4FAD-886D-716538911218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118E23F7-3856-4D98-B218-5A375C43DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Дата</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Точка</t>
+  </si>
+  <si>
+    <t>Статус</t>
   </si>
   <si>
     <t>Имя</t>
@@ -400,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,6 +429,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -1,69 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karib\Desktop\work\TelegramBots\TelegramBots\DEVELOPING\lunacoffee_opening\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118E23F7-3856-4D98-B218-5A375C43DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>Точка</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,36 +420,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Время</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Точка</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12:00:38.081234</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sanzhar</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Karibay</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>507500572</v>
       </c>
     </row>
   </sheetData>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,636 @@
         <v>507500572</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10:32:17.100623</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>АЛИШЕР</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Бекнияз</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6595499546</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11:11:37.533774</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>диана</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ибраева</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1083241668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>06:50:36.447789</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>618330929</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07:00:43.640680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Мухатай</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1938663479</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07:00:50.806860</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Абдрахманова</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1282415711</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07:20:24.701207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Махаббат</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Серикбаева</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>640145091</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>07:20:51.501874</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Айжан</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Жанатбекова</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>811079757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>07:21:14.936725</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Айжан</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Жанатбекова</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>811079757</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>07:27:07.427905</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6835940881</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>07:32:55.285867</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ерасыл</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Есжан</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>520896612</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>07:33:07.768446</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08:05:26.656034</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08:31:04.032579</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Әбілмансұр</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Баянхан</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6073445587</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>06:48:17.621021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>618330929</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>07:00:15.995552</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>07:09:07.457654</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Мухатай</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1938663479</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>07:09:33.151786</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Әбілмансұр</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Баянхан</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>6073445587</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>07:10:20.927911</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Абдрахманова</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1282415711</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,6 +1135,601 @@
         <v>1282415711</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>13:06:39.316621</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>13:07:04.530862</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Мухатай</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1938663479</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13:07:10.259925</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Пернебек</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>13:09:55.248190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ислам</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>касымов</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>5395817669</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>13:12:20.150976</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>13:23:41.542343</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Айжан</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Жанатбекова</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>811079757</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13:23:41.542343</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Айжан</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Жанатбекова</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>811079757</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13:23:41.542343</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Айжан</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Жанатбекова</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>811079757</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>07:05:51.057389</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1103966698</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>07:17:01.815046</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Абдрахманова</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1282415711</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>07:17:01.815046</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Абдрахманова</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1282415711</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>07:27:56.151963</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>5797223984</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>07:28:53.613466</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Мухатай</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1938663479</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>07:30:13.986354</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>07:34:48.291163</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Рысжан</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Маханова</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>08:56:59.576879</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>09:15:56.969206</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Пернебек</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5090,6 +5090,2526 @@
         <v>888603019</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>12:13:54.979929</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Шаттык</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Елшинбеков</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>7016171465</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>19:39:51.072873</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>19:59:25.846843</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>19:59:36.941271</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>19:59:40.716213</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>murtaza</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>muhammed</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1110165188</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>07:05:00.124901</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>07:08:27.170166</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Ерасыл</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Есжан</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>520896612</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>07:11:50.707822</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>07:20:40.305806</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>07:27:27.725135</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>ислам</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>касымов</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>5395817669</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>07:55:38.640820</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1103966698</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>08:00:26.076899</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>08:00:36.100237</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>08:05:35.972238</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Бахтияр</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Сакташев</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>796600685</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>09:24:49.925890</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Пернебек</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>19:53:54.787591</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>murtaza</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>muhammed</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1110165188</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>19:56:30.552038</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>07:08:16.787801</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Бахтияр</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Сакташев</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>796600685</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>07:17:03.861454</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Рысжан</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Маханова</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>07:22:02.841328</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Пернебек</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>07:29:43.757544</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>7121326214</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>07:29:56.162342</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>07:58:12.393133</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Шаттык</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Елшинбеков</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>7016171465</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>08:22:39.169738</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Ахметов</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>7007296064</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>09:40:12.357122</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Бекнияз</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>11:11:33.913138</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>19:51:44.591509</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>19:52:03.877675</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Санур</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Лесбек</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1214998762</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>19:52:14.109400</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Санур</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Лесбек</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1214998762</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>07:04:59.713363</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>07:12:29.857849</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>07:12:43.866515</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>7121326214</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>07:26:44.488170</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Рысжан</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Маханова</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>07:41:13.138029</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Бекнияз</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>07:57:14.706050</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>07:57:37.431760</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Муртаза</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Мухаммед</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1110165188</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>10:41:25.370828</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Дамир П</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Пернебеков</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>19:54:51.627849</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>19:55:33.023157</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>06:55:48.232568</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Ислам</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>касымов</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>5395817669</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>07:03:22.396330</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>07:11:09.051401</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1103966698</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>07:20:30.329764</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Кустов</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>6121256186</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>07:24:03.460431</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Жамшит</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Смадияр</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>665634440</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>07:24:16.216444</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Әбілмансұр</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Баянхан</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>6073445587</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>07:34:06.688318</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>07:43:45.412553</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>07:59:32.529348</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Муртаза</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Мухаммед</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1110165188</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>07:59:39.576362</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>19:49:41.030528</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Пернебеков</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>19:52:51.348536</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>19:53:36.198563</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>06:55:07.804525</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Әбілмансұр</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Баянхан</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>6073445587</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>07:19:31.594424</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1103966698</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>07:19:50.760355</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>07:20:06.980469</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>07:20:24.340634</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>07:20:29.391724</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>07:23:15.239349</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>ислам</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>касымов</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>5395817669</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>07:27:40.847268</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Кустов</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>6121256186</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>07:27:58.937308</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>07:36:34.620614</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>7121326214</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>08:00:40.684264</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>20:16:00.225684</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>07:04:19.621252</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Бахтияр</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Сакташев</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>796600685</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>07:14:57.452368</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Пернебеков</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>07:17:16.512030</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Ахметов</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>7007296064</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>07:18:40.611124</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>07:26:46.741234</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>7121326214</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>07:31:10.690677</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Рысжан</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Маханова</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>07:35:10.235952</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>ислам</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>касымов</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>5395817669</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>07:42:25.903045</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7610,6 +7610,1231 @@
         <v>7408943820</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>16:26:25.422274</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>19:54:41.060974</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>20:05:26.191980</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>муртаза</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>мухаммед</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>1110165188</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>07:08:13.159827</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Пернебек</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>07:08:31.481647</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>07:11:22.266019</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>7121326214</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>07:15:48.538660</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>07:19:47.081528</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Ахметов</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>7007296064</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>07:23:11.616701</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Рысжан</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Маханова</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>07:28:36.056484</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Жамшит</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Смадияр</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>665634440</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>07:54:48.578857</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Бекнияз</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>20:00:55.529339</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>20:18:29.819611</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Санур</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Лесбек</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1214998762</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>07:03:53.005476</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>07:14:14.487691</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Әбілмансұр</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Баянхан</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>6073445587</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>07:24:02.197939</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>07:26:35.192036</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>1103966698</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>07:30:38.501212</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Ерасыл</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Есжан</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>520896612</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>07:32:09.129462</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>ислам</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>касымов</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>5395817669</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>07:43:42.085528</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Бекнияз</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>6595499546</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>07:43:51.627021</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Пернебеков</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>08:00:40.010717</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>08:10:07.210847</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>19:51:27.616334</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>19:54:30.852781</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Санур</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Лесбек</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>1214998762</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>20:29:35.689402</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>06:59:12.431793</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Жамшит</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Смадияр</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>665634440</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>06:59:58.663112</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>07:16:47.245741</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>07:16:50.708711</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>07:20:47.046857</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>07:23:34.601772</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Ерасыл</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Есжан</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>520896612</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>08:04:02.257019</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>муртаза</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>мухаммед</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>1110165188</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>08:06:14.296296</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Азиз</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Турсунов</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>7408943820</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>09:09:35.251948</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Пернебеков</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8835,6 +8835,1406 @@
         <v>888603019</v>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>19:34:34.957655</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>19:44:49.036529</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>7121326214</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>07:20:33.339357</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>07:21:05.317992</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Ахметов</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>7007296064</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>07:21:32.443050</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Рысжан</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Маханова</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>07:21:40.450373</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Бекнияз</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>07:25:46.109762</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>1103966698</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>07:44:09.782637</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>муртаза</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>мухаммед</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>1110165188</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>07:50:27.524453</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Жамшит</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Смадияр</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>665634440</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>09:07:57.026987</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>19:45:04.226662</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>7121326214</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>19:56:23.503676</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>21:29:29.712195</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>07:22:12.862654</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Ахметов</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>7007296064</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>07:26:08.775936</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>6621149507</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>07:29:49.904744</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Бекнияз</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>6595499546</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>07:35:04.917064</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Рысжан</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Маханова</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>975061295</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>07:43:17.436601</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Замена</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>07:43:32.967909</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Пернебек</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>07:59:07.181596</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Санур</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Лесбек</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>1214998762</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>07:59:42.340632</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>19:48:38.071934</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>7121326214</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>19:57:25.139209</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Муртаза</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Мухаммед</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>1110165188</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>07:01:53.442083</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>07:04:50.520719</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>07:05:33.729084</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Жамшит</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Смадияр</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>665634440</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>07:13:43.188899</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Ерасыл</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Есжан</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>520896612</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>07:22:41.580515</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Абдуллах</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Розакулов</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>600665433</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>12:05:05.648450</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>1103966698</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>07:43:45.788837</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Серикбай</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>768149922</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>19:45:47.296692</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Турсынбаев</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>7121326214</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>19:52:23.317975</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Муртаза</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Мухаммед</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>1110165188</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>06:58:41.938293</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Бахтияр</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Сакташев</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>796600685</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>07:02:55.082927</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Толеген</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Нурмуханов</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>554798563</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>07:04:52.921298</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Жамшит</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Смадияр</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>665634440</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>07:13:40.981579</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Ерасыл</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Есжан</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>520896612</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>07:29:17.914172</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Мухамедханова</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Айбар</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Казакбаев</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>1762569420</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>07:30:04.135843</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Пернебек</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>888603019</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>07:42:02.056763</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Нурбол</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Сапарбаев</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>6683311985</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>08:17:57.795485</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Отметка</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Абдуллах</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Розакулов</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>600665433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
